--- a/DDAf_2024_Tableau_annexe_Tab33.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7A4B01-33BB-454B-8771-FC23529080A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E08EEC-4CE3-4490-94A2-9D16222C5824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{23994885-ECCC-4C7E-81E1-50E757B1614B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBC89CD7-1A54-458F-A41A-63C0C1251D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E2900-28D6-4593-B083-E18737C52748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91500B9D-A264-4D05-AA61-61C0D88BBD39}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1512,15 +1512,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1552,7 +1552,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>67.532626092069805</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>32.056914468425298</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>38.078161179194701</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>65.843038235597305</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>83.461148678934705</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>49.521835959364999</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>31.870634997071299</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>41.788254361022503</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>10.6602596074242</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>46.756985953233901</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>55</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>60.648520266636098</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>82.708177738222403</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>69</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>51</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>71.6783490024293</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>72</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>79.899973326220305</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>74</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>80.5073203949608</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>76</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>78</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>80</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>34.3288871412731</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>82</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>42.634624375966403</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>84</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>35.920259822629497</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>86</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>62.014511635466903</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>88</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>90</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>92</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>94</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>79.0175426150264</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>96</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>83.819518076763302</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>98</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>58.971749486827797</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>51</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>61.901598541681601</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>103</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>55.062418337387697</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>105</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>107</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>109</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>76.568084627504007</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>111</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>57.3174954162372</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>51</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>62.982666127042897</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>114</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>81.684233399143693</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>116</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>96.738430284411905</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>118</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>36.079574511608897</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>120</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>89.101913558729294</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>122</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>61.215609627809997</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>45.4135791652484</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>126</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>72.762632656129995</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>128</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>79.860983455882405</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>130</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>59.033552614868803</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>132</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>95.618341390748</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>134</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>90.438429613975103</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>136</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>38.2440981153674</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>138</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>83.715035724013404</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>140</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>76.810959533303503</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>142</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>86.484331928839694</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>51</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>72.880113705338701</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>51</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>63.248254274218603</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>51</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>34.403051001821503</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>51</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>46.394073030190697</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>51</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>49.697769752760898</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>51</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>42.122189905702399</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>51</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>52.015496746125997</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>51</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>75.458479545458104</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>51</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>59.783666585082798</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>51</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>68.225958933098795</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>51</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>72.880113705338701</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>51</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>63.206374909521998</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>51</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>51.0067114754372</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>51</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>66.942790021870593</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>51</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>66.733583184623996</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>51</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>42.502551324554801</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>51</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>39.627683102347099</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>51</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>21.547849931221599</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>51</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>24.584998912123599</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>51</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>62.106792780633697</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>51</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>42.322729051156003</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>51</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>63.346093830811597</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>51</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>33.370049517125601</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>51</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>75.357742355734601</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>51</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>64.102289294540995</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>51</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>59.9527812096266</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>51</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>44.302537024644501</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>51</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>37.342411311872802</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>51</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>37.965528308144201</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>51</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>24.892080597472098</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>51</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>74.459175010704598</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>51</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>46.860958791519899</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>51</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>57.940197779085302</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>51</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>44.286133243358698</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>51</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>61.356024363755999</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>51</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>36.7356258684366</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>51</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>67.046703896083997</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>51</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>52.655915847081403</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -10216,7 +10216,7 @@
       <c r="AB99" s="53"/>
       <c r="AC99" s="53"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>180</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="AB100" s="74"/>
       <c r="AC100" s="74"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
@@ -10280,7 +10280,7 @@
       <c r="AB101" s="74"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>182</v>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="AB102" s="74"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
@@ -10344,7 +10344,7 @@
       <c r="AB103" s="74"/>
       <c r="AC103" s="74"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>184</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="AB104" s="74"/>
       <c r="AC104" s="74"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -10405,7 +10405,7 @@
       <c r="AB105" s="74"/>
       <c r="AC105" s="74"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -10435,7 +10435,7 @@
       <c r="AB106" s="74"/>
       <c r="AC106" s="74"/>
     </row>
-    <row r="107" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>185</v>
       </c>
@@ -10467,7 +10467,7 @@
       <c r="AB107" s="74"/>
       <c r="AC107" s="74"/>
     </row>
-    <row r="108" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -10497,7 +10497,7 @@
       <c r="AB108" s="74"/>
       <c r="AC108" s="74"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>187</v>
       </c>
@@ -10529,7 +10529,7 @@
       <c r="AB109" s="74"/>
       <c r="AC109" s="74"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>188</v>
       </c>
@@ -10561,7 +10561,7 @@
       <c r="AB110" s="74"/>
       <c r="AC110" s="74"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>189</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="AB111" s="74"/>
       <c r="AC111" s="74"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>186</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="AB112" s="74"/>
       <c r="AC112" s="74"/>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -10655,7 +10655,7 @@
       <c r="AB113" s="74"/>
       <c r="AC113" s="74"/>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -10687,11 +10687,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1890AD64-7C9F-4DAF-B254-14D265A1416F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AEFBCA30-8F7D-4AD8-A87C-894595E1F4F1}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C83262B1-09A7-4580-9AB7-3945F9A4BDCC}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{9B9EC061-05B7-4A6E-990C-9FEEEF052B0D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{B5D5B496-CC7B-49AB-B5B7-253895AF9B6F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ADDCF7DE-0124-4D29-9EF2-12685A4001EE}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1AE09BA1-92F7-4F10-87AF-911E314DC4F0}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{EE2E9AC9-BC55-41EC-9167-6C6261F2353A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4E21DE9E-F7EB-4E16-8B35-C674A4B7CC84}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{94463C54-A4C5-4E1B-8401-BE5AC80E2250}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab33.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E08EEC-4CE3-4490-94A2-9D16222C5824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DDD7B5-C00A-40E4-B158-1B3753DE0A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBC89CD7-1A54-458F-A41A-63C0C1251D28}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3E693059-4C89-421A-AA1F-FD27324D58CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,13 +743,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -965,7 +958,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1185,10 +1178,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1504,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91500B9D-A264-4D05-AA61-61C0D88BBD39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74663740-F1F8-4E00-8346-9FFDD3B87D5F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10406,7 +10398,6 @@
       <c r="AC105" s="74"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -10436,7 +10427,7 @@
       <c r="AC106" s="74"/>
     </row>
     <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>185</v>
       </c>
       <c r="C107" s="74"/>
@@ -10468,7 +10459,7 @@
       <c r="AC107" s="74"/>
     </row>
     <row r="108" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -10562,7 +10553,7 @@
       <c r="AC110" s="74"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>189</v>
       </c>
       <c r="C111" s="74"/>
@@ -10594,7 +10585,7 @@
       <c r="AC111" s="74"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>186</v>
       </c>
       <c r="C112" s="74"/>
@@ -10687,11 +10678,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{ADDCF7DE-0124-4D29-9EF2-12685A4001EE}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1AE09BA1-92F7-4F10-87AF-911E314DC4F0}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{EE2E9AC9-BC55-41EC-9167-6C6261F2353A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4E21DE9E-F7EB-4E16-8B35-C674A4B7CC84}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{94463C54-A4C5-4E1B-8401-BE5AC80E2250}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F238BD6F-EF44-499D-8FC9-515D2AFF3008}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{26C941C4-C045-48B5-AC6A-386339EF8227}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{EBF53267-1C26-4016-86D7-61C0FE826BF1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{7DCEC638-25E1-4012-A498-F4B94E61E534}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{13F6C2DC-4F6D-4845-93AE-B107701C9168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab33.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DDD7B5-C00A-40E4-B158-1B3753DE0A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{827A5731-D8A2-46C5-96E4-7AF13831F51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3E693059-4C89-421A-AA1F-FD27324D58CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55A64250-B0DA-4B96-8903-B1209C486EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab33" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="192">
   <si>
     <t>Tableau 33 : Inadéquation de l’éducation</t>
   </si>
@@ -513,13 +513,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1496,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74663740-F1F8-4E00-8346-9FFDD3B87D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B263EB1B-9E4E-41A6-B67A-8D22B007FE15}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7957,7 +7963,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C74" s="60">
         <v>10.0525706008352</v>
@@ -8046,7 +8052,7 @@
         <v>51</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="52">
         <v>7.0388352150599403</v>
@@ -8135,7 +8141,7 @@
         <v>51</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="68">
         <v>19.917750788504499</v>
@@ -8224,7 +8230,7 @@
         <v>51</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="60">
         <v>17.5066427659563</v>
@@ -8313,7 +8319,7 @@
         <v>51</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C78" s="60">
         <v>20.645442541565998</v>
@@ -8402,7 +8408,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C79" s="64">
         <v>20.900272274787799</v>
@@ -8491,7 +8497,7 @@
         <v>51</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C80" s="60">
         <v>7.7378830351373402</v>
@@ -8580,7 +8586,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C81" s="60">
         <v>17.3482565367683</v>
@@ -8669,7 +8675,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C82" s="60">
         <v>10.4594135323687</v>
@@ -8758,7 +8764,7 @@
         <v>51</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" s="52">
         <v>17.756402845273001</v>
@@ -8847,7 +8853,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C84" s="68">
         <v>5.7157137930256701</v>
@@ -8936,7 +8942,7 @@
         <v>51</v>
       </c>
       <c r="B85" s="71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C85" s="60">
         <v>5.0619339066106699</v>
@@ -9025,7 +9031,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C86" s="60">
         <v>10.8464347140198</v>
@@ -9114,7 +9120,7 @@
         <v>51</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C87" s="60">
         <v>15.5021619135316</v>
@@ -9203,7 +9209,7 @@
         <v>51</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C88" s="60">
         <v>23.0861088388897</v>
@@ -9292,7 +9298,7 @@
         <v>51</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C89" s="60">
         <v>16.4465998727586</v>
@@ -9381,7 +9387,7 @@
         <v>51</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C90" s="64">
         <v>20.506888661823801</v>
@@ -9470,7 +9476,7 @@
         <v>51</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C91" s="60">
         <v>6.4790482059622301</v>
@@ -9559,7 +9565,7 @@
         <v>51</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C92" s="60">
         <v>13.0094124035126</v>
@@ -9648,7 +9654,7 @@
         <v>51</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C93" s="60">
         <v>10.8706434279318</v>
@@ -9737,7 +9743,7 @@
         <v>51</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C94" s="60">
         <v>14.3657883200827</v>
@@ -9826,7 +9832,7 @@
         <v>51</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C95" s="60">
         <v>11.3537926044374</v>
@@ -9915,7 +9921,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C96" s="52">
         <v>14.344847689300799</v>
@@ -10004,7 +10010,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C97" s="68">
         <v>8.6923931745387897</v>
@@ -10093,7 +10099,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C98" s="64">
         <v>13.0108428952846</v>
@@ -10210,7 +10216,7 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C100" s="74"/>
       <c r="D100" s="74"/>
@@ -10242,7 +10248,7 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C101" s="74"/>
       <c r="D101" s="74"/>
@@ -10274,7 +10280,7 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C102" s="74"/>
       <c r="D102" s="74"/>
@@ -10306,7 +10312,7 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C103" s="74"/>
       <c r="D103" s="74"/>
@@ -10338,7 +10344,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C104" s="74"/>
       <c r="D104" s="74"/>
@@ -10428,7 +10434,7 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C107" s="74"/>
       <c r="D107" s="74"/>
@@ -10490,7 +10496,7 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C109" s="74"/>
       <c r="D109" s="74"/>
@@ -10522,7 +10528,7 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C110" s="74"/>
       <c r="D110" s="74"/>
@@ -10554,7 +10560,7 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B111" s="76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C111" s="74"/>
       <c r="D111" s="74"/>
@@ -10586,7 +10592,7 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B112" s="76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C112" s="74"/>
       <c r="D112" s="74"/>
@@ -10678,11 +10684,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F238BD6F-EF44-499D-8FC9-515D2AFF3008}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{26C941C4-C045-48B5-AC6A-386339EF8227}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{EBF53267-1C26-4016-86D7-61C0FE826BF1}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{7DCEC638-25E1-4012-A498-F4B94E61E534}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{13F6C2DC-4F6D-4845-93AE-B107701C9168}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{98801783-5717-48CB-9432-C99857D6232E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ACB82CB6-9A96-4CF4-AA5E-3CB8CE5CAC04}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{8679E064-2369-4A9E-AD8B-B59FC41EC686}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{2A81EFD0-C128-41DF-8323-43233308B921}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E81A8C2B-D503-455A-8504-C1BEB9FDD0F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
